--- a/Casos Cartera/Reportes.xlsx
+++ b/Casos Cartera/Reportes.xlsx
@@ -9,24 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787"/>
   </bookViews>
   <sheets>
-    <sheet name="Cargar Rendición PAC" sheetId="15" r:id="rId1"/>
+    <sheet name="Campaña Prepago" sheetId="15" r:id="rId1"/>
     <sheet name="Generar Nómina de Cargo" sheetId="38" r:id="rId2"/>
     <sheet name="Generar Nómina de Reintento" sheetId="16" r:id="rId3"/>
     <sheet name="Reporte Rendición" sheetId="18" r:id="rId4"/>
     <sheet name="Subir Universo" sheetId="17" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cargar Rendición PAC'!$A$2:$H$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Campaña Prepago'!$A$2:$H$50</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -43,24 +43,9 @@
     <t>Sistema debe de emitir mensaje de alerta correspondiente a cada situación</t>
   </si>
   <si>
-    <t>TC_Cartera_PAC_Archivo</t>
-  </si>
-  <si>
-    <t>TC_Cartera_PAC_ArchivoError</t>
-  </si>
-  <si>
-    <t>Validar la carga de archivo Excel con formato correcto, el cual posee todas las rendiciones de PAC que el banco Santander entrega</t>
-  </si>
-  <si>
-    <t>Validar la carga de archivo Excel con formato incorrecto, el cual posee informacion correspondientes a las rendiciones de PAC que el banco Santander entrega</t>
-  </si>
-  <si>
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Cargar Redición PAC, hacer clic en boton browser, seleccionar archivo excel</t>
   </si>
   <si>
-    <t>Sistema carga archivo de manera exitosa</t>
-  </si>
-  <si>
     <t>Sistema emite mensaje indicando que el archivo no cumple con el formato establecido</t>
   </si>
   <si>
@@ -188,6 +173,27 @@
   </si>
   <si>
     <t>Sistema no modificar los créditos ya que no tienen PAC activado.</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ReporteCPrepago_</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ReporteCPrepago_Generar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ReporteCPrepago_Fecha</t>
+  </si>
+  <si>
+    <t>Validar emisión de archivo excel, el cual contine los posibles candidatos a prepagos a fecha y días de mora indicados</t>
+  </si>
+  <si>
+    <t>Validar emisión de archivo excel, el cual contine los posibles candidatos a prepagos sin indicar fecha</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reporte - sub modulo Campaña Prepago, ingresar días de mora 92, ingresar fecha actual, hacer clic en boton generar</t>
+  </si>
+  <si>
+    <t>Se debe generar archivo excel con los créditos con mora y que el pago no sea al día, contrato este VIGENTE, días mora específicos</t>
   </si>
 </sst>
 </file>
@@ -599,17 +605,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="43" style="3" customWidth="1"/>
     <col min="2" max="2" width="156" style="5" customWidth="1"/>
     <col min="3" max="3" width="175" style="4" customWidth="1"/>
-    <col min="4" max="4" width="86.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="127" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -634,34 +640,36 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -917,44 +925,44 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1208,44 +1216,44 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1500,44 +1508,44 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1752,7 +1760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1786,30 +1794,30 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/Casos Cartera/Reportes.xlsx
+++ b/Casos Cartera/Reportes.xlsx
@@ -9,14 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Campaña Prepago" sheetId="15" r:id="rId1"/>
-    <sheet name="Generar Nómina de Cargo" sheetId="38" r:id="rId2"/>
-    <sheet name="Generar Nómina de Reintento" sheetId="16" r:id="rId3"/>
-    <sheet name="Reporte Rendición" sheetId="18" r:id="rId4"/>
-    <sheet name="Subir Universo" sheetId="17" r:id="rId5"/>
+    <sheet name="Créditos por fecha de corte" sheetId="38" r:id="rId2"/>
+    <sheet name="DICOM" sheetId="16" r:id="rId3"/>
+    <sheet name="Reporte Rendición Diaria" sheetId="18" r:id="rId4"/>
+    <sheet name="Traspaso a Judicial" sheetId="17" r:id="rId5"/>
+    <sheet name="Mora Cierre" sheetId="39" r:id="rId6"/>
+    <sheet name="Data Cliente" sheetId="40" r:id="rId7"/>
+    <sheet name="Flujo de Contratos de Fondo" sheetId="41" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Campaña Prepago'!$A$2:$H$50</definedName>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -43,45 +46,6 @@
     <t>Sistema debe de emitir mensaje de alerta correspondiente a cada situación</t>
   </si>
   <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Cargar Redición PAC, hacer clic en boton browser, seleccionar archivo excel</t>
-  </si>
-  <si>
-    <t>Sistema emite mensaje indicando que el archivo no cumple con el formato establecido</t>
-  </si>
-  <si>
-    <t>TC_Cartera_PACGenerarNomina_Documento</t>
-  </si>
-  <si>
-    <t>TC_Cartera_PACGenerarNomina_Fecha</t>
-  </si>
-  <si>
-    <t>TC_Cartera_PACGenerarNomina_FechaError</t>
-  </si>
-  <si>
-    <t>Validar emisión de nómina de cargo, sin indicar fecha.</t>
-  </si>
-  <si>
-    <t>Validar emisión de nómina de cargo, indicando fecha en la cual existe regitros.</t>
-  </si>
-  <si>
-    <t>Validar emisión de nómina de cargo, indicando fecha en la cual no hay regitros.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Generar Nómina de Cargo, ingresar fecha en la cual exiten regitros, hacer clic en boton confirmar, visualizar archivo excel con la información correspondiente.</t>
-  </si>
-  <si>
-    <t>Descarga de archivo excel con información correspondiente a nómina de cargo</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Generar Nómina de Cargo, ingresar fecha en la cual no hay regitros, hacer clic en boton confirmar, se debe descargar archivo excel</t>
-  </si>
-  <si>
-    <t>Descarga de archivo excel sin información correspondiente a nómina de cargo</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Generar Nómina de Cargo, hacer clic en boton confirmar</t>
-  </si>
-  <si>
     <t>Sistema emite mensaje indicando Debe ingresar una fecha.</t>
   </si>
   <si>
@@ -118,82 +82,208 @@
     <t>Descarga de archivo excel sin información correspondiente a nómina de reintento</t>
   </si>
   <si>
-    <t>TC_Cartera_PACReporteRendicion_Documento</t>
-  </si>
-  <si>
-    <t>TC_Cartera_PACReporteRendicion_Fecha</t>
-  </si>
-  <si>
-    <t>TC_Cartera_PACReporteRendicion_FechaError</t>
-  </si>
-  <si>
-    <t>Validar emisión de reporte rendición, indicando fecha en la cual existe regitros.</t>
-  </si>
-  <si>
-    <t>Validar emisión de reporte rendición, indicando fecha en la cual no hay regitros.</t>
-  </si>
-  <si>
-    <t>Validar emisión de reporte rendición, sin indicar fecha.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Reporte Rendición, ingresar fecha en la cual exiten regitros, hacer clic en boton confirmar, visualizar archivo excel con la información correspondiente.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Reporte Rendición, ingresar fecha en la cual no hay regitros, hacer clic en boton confirmar, se debe descargar archivo excel</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Reporte Rendición, hacer clic en boton confirmar</t>
-  </si>
-  <si>
-    <t>Descarga de archivo excel con información correspondiente a reporte rendición</t>
-  </si>
-  <si>
-    <t>Descarga de archivo excel sin información correspondiente a reporte rendición.</t>
-  </si>
-  <si>
-    <t>TC_Cartera_PACSubirUniverso_Archivo</t>
-  </si>
-  <si>
-    <t>TC_Cartera_PACSubirUniverso_ArchivoError</t>
-  </si>
-  <si>
-    <t>Lectura es exitosa, debe borra los campos a leer del Excel: CreCodigoConvenio, CreBancoDebito, CreCodigoServicio, CreBancoDebito, Fecha Registro.</t>
-  </si>
-  <si>
-    <t>Validar la carga de archivo con formato correcto, el cual posee los créditos que no tengan activado el PAC.</t>
-  </si>
-  <si>
-    <t>Validar la carga de archivo con formato correcto, el cual posee los créditos que tengan activado el PAC.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Subir Universo, hacer clic en boton browser, seleccionar archivo excel</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Subir universo, hacer clic en boton browser, seleccionar archivo excel</t>
-  </si>
-  <si>
-    <t>Sistema no modificar los créditos ya que no tienen PAC activado.</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ReporteCPrepago_</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ReporteCPrepago_Generar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ReporteCPrepago_Fecha</t>
-  </si>
-  <si>
     <t>Validar emisión de archivo excel, el cual contine los posibles candidatos a prepagos a fecha y días de mora indicados</t>
   </si>
   <si>
     <t>Validar emisión de archivo excel, el cual contine los posibles candidatos a prepagos sin indicar fecha</t>
   </si>
   <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reporte - sub modulo Campaña Prepago, ingresar días de mora 92, ingresar fecha actual, hacer clic en boton generar</t>
-  </si>
-  <si>
     <t>Se debe generar archivo excel con los créditos con mora y que el pago no sea al día, contrato este VIGENTE, días mora específicos</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje solicitando fecha</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ReportesCPrepago_Generar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ReportesCPrepago_Fecha</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ReportesCreditosFC_ContratoVigente</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ReportesCreditosFC_Fecha</t>
+  </si>
+  <si>
+    <t>Validar reporte Créditos por fecha de corte, indicando fecha actual para visualizar créditos con contratos en estado vigente</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Campaña Prepago, ingresar días de mora 92, ingresar fecha actual, hacer clic en boton generar</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes  - sub modulo Campaña Prepago, ingresar días de mora 90, hacer clic en boton generar</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Créditos por fecha de corte, ingresar fecha actual, hacer clic en boton generar informe.</t>
+  </si>
+  <si>
+    <t>Descarga de archivo excel con información correspondiente a créditos que poseen contrato en estado vigente</t>
+  </si>
+  <si>
+    <t>Validar emisión de reporte Créditos por fecha de corte, sin indicar fecha de corte</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Créditos por fecha de corte, hacer clic en boton generar informe</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ReportesDataCliente_Excel</t>
+  </si>
+  <si>
+    <t>Validar emisión de reporte Data Cliente, se debe visualizar todos los datos de los clientes.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Data Cliente, hacer clic en boton Data Cliente.</t>
+  </si>
+  <si>
+    <t>Descarga de archivo excel con información correspondiente a los clientes</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ReportesRendicionDiaria_Fecha</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ReportesRendicionDiaria_Procesada</t>
+  </si>
+  <si>
+    <t>Validar emisión de reporte Rendición Diaria, sin indicar fecha.</t>
+  </si>
+  <si>
+    <t>Menor</t>
+  </si>
+  <si>
+    <t>Validar emisión reporte Rendición Diaria, indicando fecha para visualizar créditos con recaudaciones estado procesada</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Reporte Rendición Diaria, ingresar fecha, hacer clic en boton generar.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Reporte Rendición Diaria, hacer clic en boton generar.</t>
+  </si>
+  <si>
+    <t>Descarga de archivo excel con información correspondiente a créditos que poseen recaudaciones en estado procesadas</t>
+  </si>
+  <si>
+    <t>Traspaso a Judicial</t>
+  </si>
+  <si>
+    <t>Estado Contrato</t>
+  </si>
+  <si>
+    <t>Estado Pago</t>
+  </si>
+  <si>
+    <t>Vigente</t>
+  </si>
+  <si>
+    <t>Prepagado</t>
+  </si>
+  <si>
+    <t>Extinto</t>
+  </si>
+  <si>
+    <t>Incautado</t>
+  </si>
+  <si>
+    <t>Dación Pago</t>
+  </si>
+  <si>
+    <t>Castigado</t>
+  </si>
+  <si>
+    <t>Vendido</t>
+  </si>
+  <si>
+    <t>Rematado</t>
+  </si>
+  <si>
+    <t>Al día</t>
+  </si>
+  <si>
+    <t>Moroso</t>
+  </si>
+  <si>
+    <t>Vencido</t>
+  </si>
+  <si>
+    <t>Judicial</t>
+  </si>
+  <si>
+    <t>Pre Judicial</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionTJ_VendidoDia</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionTJ_VendidoJudicial</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionTJ_ExtendidoJudicial</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionTJ_ExtendidoDia</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionTJ_ExtendidopreJudicial</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionTJ_IncautadoDia</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionTJ_IncautadoJudicial</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionTJ_DacionDia</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionTJ_DacionJudicial</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionTJ_DacionpreJudicial</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionTJ_CastigadoDia</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionTJ_CastigadoJudicial</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionTJ_VendidopreJudicial</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionTJ_RematadoDia</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionTJ_RematadoJudicial</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionTJ_RematadoPreJudicial</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionTJ_VigenteDia</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionTJ_VigenteMoroso</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionTJ_VigenteMenor</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionTJ_VigenteVencido</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionTJ_VigenteJudicial</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionTJ_VigentePreJudicial</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionTJ_PrepagadoDia</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionTJ_PrepagadoJudicial</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionTJ_PrepagadoPreJudicial</t>
   </si>
 </sst>
 </file>
@@ -224,7 +314,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -265,11 +355,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -299,6 +418,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,15 +759,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" style="3" customWidth="1"/>
-    <col min="2" max="2" width="156" style="5" customWidth="1"/>
+    <col min="2" max="2" width="117.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="175" style="4" customWidth="1"/>
     <col min="4" max="4" width="127" style="4" customWidth="1"/>
   </cols>
@@ -640,36 +794,34 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -891,16 +1043,16 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:D5"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="84.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="121.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="255.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="79" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="110.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
@@ -925,45 +1077,37 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -1182,8 +1326,8 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:D5"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,44 +1360,44 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1475,18 +1619,18 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="82.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="255.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="82.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="121.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="169.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="118.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1508,45 +1652,37 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -1554,7 +1690,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
@@ -1578,8 +1714,10 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1594,21 +1732,23 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
@@ -1625,7 +1765,7 @@
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="10"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1643,7 +1783,7 @@
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="4"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1758,21 +1898,1566 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="16" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="110.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="175" style="4" customWidth="1"/>
-    <col min="4" max="4" width="144.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="25" customWidth="1"/>
+    <col min="2" max="3" width="3" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="5" max="6" width="3.85546875" customWidth="1"/>
+    <col min="7" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" style="14" customWidth="1"/>
+    <col min="12" max="12" width="3.5703125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" style="14" customWidth="1"/>
+    <col min="14" max="14" width="3.42578125" style="14" customWidth="1"/>
+    <col min="15" max="15" width="3.85546875" style="25" customWidth="1"/>
+    <col min="16" max="16" width="55" style="25" customWidth="1"/>
+    <col min="17" max="17" width="163.42578125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="255.42578125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="85.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="13">
+        <v>1</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13">
+        <v>1</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13">
+        <v>1</v>
+      </c>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13">
+        <v>1</v>
+      </c>
+      <c r="N6" s="13"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13">
+        <v>1</v>
+      </c>
+      <c r="O7" s="23"/>
+      <c r="P7" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="23">
+        <v>1</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="13">
+        <v>1</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13">
+        <v>1</v>
+      </c>
+      <c r="O10" s="23"/>
+      <c r="P10" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="7"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="23">
+        <v>1</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="S11" s="7"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <v>1</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="13">
+        <v>1</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="S12" s="7"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
+        <v>1</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13">
+        <v>1</v>
+      </c>
+      <c r="O13" s="23"/>
+      <c r="P13" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="S13" s="7"/>
+    </row>
+    <row r="14" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>1</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="23">
+        <v>1</v>
+      </c>
+      <c r="P14" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="7"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
+        <v>1</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13">
+        <v>1</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="13">
+        <v>1</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="S15" s="7"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <v>1</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13">
+        <v>1</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13">
+        <v>1</v>
+      </c>
+      <c r="O16" s="23"/>
+      <c r="P16" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="S16" s="7"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
+        <v>1</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="13">
+        <v>1</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="S17" s="7"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
+        <v>1</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13">
+        <v>1</v>
+      </c>
+      <c r="O18" s="23"/>
+      <c r="P18" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="S18" s="7"/>
+    </row>
+    <row r="19" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
+        <v>1</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="23">
+        <v>1</v>
+      </c>
+      <c r="P19" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="7"/>
+    </row>
+    <row r="20" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
+        <v>1</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13">
+        <v>1</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="13">
+        <v>1</v>
+      </c>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="7"/>
+    </row>
+    <row r="21" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23">
+        <v>1</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13">
+        <v>1</v>
+      </c>
+      <c r="O21" s="23"/>
+      <c r="P21" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="7"/>
+    </row>
+    <row r="22" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23">
+        <v>1</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13">
+        <v>1</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="13">
+        <v>1</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="7"/>
+    </row>
+    <row r="23" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13">
+        <v>1</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13">
+        <v>1</v>
+      </c>
+      <c r="O23" s="23"/>
+      <c r="P23" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="7"/>
+    </row>
+    <row r="24" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23">
+        <v>1</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13">
+        <v>1</v>
+      </c>
+      <c r="I24" s="23"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="23">
+        <v>1</v>
+      </c>
+      <c r="P24" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+    </row>
+    <row r="25" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23">
+        <v>1</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="23">
+        <v>1</v>
+      </c>
+      <c r="J25" s="13">
+        <v>1</v>
+      </c>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+    </row>
+    <row r="26" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23">
+        <v>1</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="23">
+        <v>1</v>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13">
+        <v>1</v>
+      </c>
+      <c r="O26" s="23"/>
+      <c r="P26" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+    </row>
+    <row r="27" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23">
+        <v>1</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="23">
+        <v>1</v>
+      </c>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="23">
+        <v>1</v>
+      </c>
+      <c r="P27" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="4"/>
+    </row>
+    <row r="28" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="24"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="24"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="24"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="24"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="24"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="24"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="24"/>
+    </row>
+    <row r="36" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+    </row>
+    <row r="37" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+    </row>
+    <row r="38" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+    </row>
+    <row r="39" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="23"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+    </row>
+    <row r="40" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+    </row>
+    <row r="41" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="24"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="24"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="24"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="24"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="24"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="24"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="24"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="24"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="24"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="23"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="24"/>
+    </row>
+    <row r="52" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="23"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="23"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="23"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="23"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="23"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="23"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="23"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="23"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="23"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="23"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="23"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="23"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="23"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="23"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="23"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="23"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="23"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="23"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="23"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="101" style="5" customWidth="1"/>
+    <col min="3" max="3" width="147.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1786,7 +3471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -1794,31 +3479,23 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -1832,11 +3509,11 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -1850,17 +3527,17 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -1874,11 +3551,14 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+    <row r="17" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="4"/>
       <c r="D18" s="7"/>
@@ -1922,11 +3602,11 @@
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="4"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1973,10 +3653,8 @@
     <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
@@ -2035,4 +3713,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Casos Cartera/Reportes.xlsx
+++ b/Casos Cartera/Reportes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Campaña Prepago" sheetId="15" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="87">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>TC_Cartera_AdministracionTJ_PrepagadoPreJudicial</t>
+  </si>
+  <si>
+    <t>Cobrador</t>
+  </si>
+  <si>
+    <t>Emisión de reporte Traspaso a Judicial con datos seleccionados de manera exitosa</t>
   </si>
 </sst>
 </file>
@@ -388,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -412,18 +418,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -440,19 +456,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,24 +782,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1056,24 +1065,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1339,24 +1348,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1618,6 +1627,2122 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="121.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="169.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="118.7109375" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="17" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T3" sqref="T3:T27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" style="17" customWidth="1"/>
+    <col min="2" max="3" width="3" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="5" max="6" width="3.85546875" customWidth="1"/>
+    <col min="7" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" style="12" customWidth="1"/>
+    <col min="12" max="12" width="3.5703125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" style="12" customWidth="1"/>
+    <col min="14" max="14" width="3.42578125" style="12" customWidth="1"/>
+    <col min="15" max="16" width="3.85546875" style="17" customWidth="1"/>
+    <col min="17" max="17" width="55" style="17" customWidth="1"/>
+    <col min="18" max="18" width="125.140625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="222.85546875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="85.5703125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+    </row>
+    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="11">
+        <v>1</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" s="5" t="str">
+        <f>CONCATENATE("Validar emisión de reporte Traspaso a Judicial"," considerando ",$B$1," ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2,IF(E3=1,$E$2,IF(F3=1,$F$2,IF(G3=1,$G$2,IF(H3=1,$H$2,IF(I3=1,$I$2))))))))," y Estado Pago ",IF(J3=1,$J$2,IF(K3=1,$K$2,IF(L3=1,$L$2,IF(M3=1,$M$2,IF(N3=1,$N$2,IF(O3=1,$O$2)))))))</f>
+        <v>Validar emisión de reporte Traspaso a Judicial considerando Estado Contrato Vigente y Estado Pago Al día</v>
+      </c>
+      <c r="S3" s="4" t="str">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2,IF(E3=1,$E$2,IF(F3=1,$F$2,IF(G3=1,$G$2,IF(H3=1,$H$2,IF(I3=1,$I$2))))))))," y Estado Pago ",IF(J3=1,$J$2,IF(K3=1,$K$2,IF(L3=1,$L$2,IF(M3=1,$M$2,IF(N3=1,$N$2,IF(O3=1,$O$2)))))),IF(P3=1," seleccionar cobrador",""),", hacer clic en boton confirmar")</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Vigente y Estado Pago Al día seleccionar cobrador, hacer clic en boton confirmar</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11">
+        <v>1</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" s="5" t="str">
+        <f t="shared" ref="R4:R27" si="0">CONCATENATE("Validar emisión de reporte Traspaso a Judicial"," considerando ",$B$1," ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2,IF(E4=1,$E$2,IF(F4=1,$F$2,IF(G4=1,$G$2,IF(H4=1,$H$2,IF(I4=1,$I$2))))))))," y Estado Pago ",IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2,IF(M4=1,$M$2,IF(N4=1,$N$2,IF(O4=1,$O$2)))))))</f>
+        <v>Validar emisión de reporte Traspaso a Judicial considerando Estado Contrato Vigente y Estado Pago Moroso</v>
+      </c>
+      <c r="S4" s="4" t="str">
+        <f t="shared" ref="S4:S27" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2,IF(E4=1,$E$2,IF(F4=1,$F$2,IF(G4=1,$G$2,IF(H4=1,$H$2,IF(I4=1,$I$2))))))))," y Estado Pago ",IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2,IF(M4=1,$M$2,IF(N4=1,$N$2,IF(O4=1,$O$2)))))),IF(P4=1," seleccionar cobrador",""),", hacer clic en boton confirmar")</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Vigente y Estado Pago Moroso, hacer clic en boton confirmar</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11">
+        <v>1</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="R5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar emisión de reporte Traspaso a Judicial considerando Estado Contrato Vigente y Estado Pago Menor</v>
+      </c>
+      <c r="S5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Vigente y Estado Pago Menor, hacer clic en boton confirmar</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11">
+        <v>1</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="R6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar emisión de reporte Traspaso a Judicial considerando Estado Contrato Vigente y Estado Pago Vencido</v>
+      </c>
+      <c r="S6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Vigente y Estado Pago Vencido seleccionar cobrador, hacer clic en boton confirmar</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11">
+        <v>1</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar emisión de reporte Traspaso a Judicial considerando Estado Contrato Vigente y Estado Pago Judicial</v>
+      </c>
+      <c r="S7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Vigente y Estado Pago Judicial, hacer clic en boton confirmar</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>1</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="15">
+        <v>1</v>
+      </c>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar emisión de reporte Traspaso a Judicial considerando Estado Contrato Vigente y Estado Pago Pre Judicial</v>
+      </c>
+      <c r="S8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Vigente y Estado Pago Pre Judicial, hacer clic en boton confirmar</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="11">
+        <v>1</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="R9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar emisión de reporte Traspaso a Judicial considerando Estado Contrato Prepagado y Estado Pago Al día</v>
+      </c>
+      <c r="S9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Prepagado y Estado Pago Al día seleccionar cobrador, hacer clic en boton confirmar</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11">
+        <v>1</v>
+      </c>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="R10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar emisión de reporte Traspaso a Judicial considerando Estado Contrato Prepagado y Estado Pago Judicial</v>
+      </c>
+      <c r="S10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Prepagado y Estado Pago Judicial, hacer clic en boton confirmar</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="15">
+        <v>1</v>
+      </c>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="R11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar emisión de reporte Traspaso a Judicial considerando Estado Contrato Prepagado y Estado Pago Pre Judicial</v>
+      </c>
+      <c r="S11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Prepagado y Estado Pago Pre Judicial, hacer clic en boton confirmar</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="11">
+        <v>1</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="R12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar emisión de reporte Traspaso a Judicial considerando Estado Contrato Extinto y Estado Pago Al día</v>
+      </c>
+      <c r="S12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Extinto y Estado Pago Al día seleccionar cobrador, hacer clic en boton confirmar</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>1</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11">
+        <v>1</v>
+      </c>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="R13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar emisión de reporte Traspaso a Judicial considerando Estado Contrato Extinto y Estado Pago Judicial</v>
+      </c>
+      <c r="S13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Extinto y Estado Pago Judicial, hacer clic en boton confirmar</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>1</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="15">
+        <v>1</v>
+      </c>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="R14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar emisión de reporte Traspaso a Judicial considerando Estado Contrato Extinto y Estado Pago Pre Judicial</v>
+      </c>
+      <c r="S14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Extinto y Estado Pago Pre Judicial, hacer clic en boton confirmar</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="11">
+        <v>1</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="R15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar emisión de reporte Traspaso a Judicial considerando Estado Contrato Incautado y Estado Pago Al día</v>
+      </c>
+      <c r="S15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Incautado y Estado Pago Al día seleccionar cobrador, hacer clic en boton confirmar</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>1</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11">
+        <v>1</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11">
+        <v>1</v>
+      </c>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="R16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar emisión de reporte Traspaso a Judicial considerando Estado Contrato Incautado y Estado Pago Judicial</v>
+      </c>
+      <c r="S16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Incautado y Estado Pago Judicial, hacer clic en boton confirmar</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>1</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="11">
+        <v>1</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="R17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar emisión de reporte Traspaso a Judicial considerando Estado Contrato Dación Pago y Estado Pago Al día</v>
+      </c>
+      <c r="S17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Dación Pago y Estado Pago Al día, hacer clic en boton confirmar</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>1</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11">
+        <v>1</v>
+      </c>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="R18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar emisión de reporte Traspaso a Judicial considerando Estado Contrato Dación Pago y Estado Pago Judicial</v>
+      </c>
+      <c r="S18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Dación Pago y Estado Pago Judicial seleccionar cobrador, hacer clic en boton confirmar</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>1</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11">
+        <v>1</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="15">
+        <v>1</v>
+      </c>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="R19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar emisión de reporte Traspaso a Judicial considerando Estado Contrato Dación Pago y Estado Pago Pre Judicial</v>
+      </c>
+      <c r="S19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Dación Pago y Estado Pago Pre Judicial, hacer clic en boton confirmar</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>1</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="11">
+        <v>1</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="R20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar emisión de reporte Traspaso a Judicial considerando Estado Contrato Castigado y Estado Pago Al día</v>
+      </c>
+      <c r="S20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Castigado y Estado Pago Al día, hacer clic en boton confirmar</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>1</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11">
+        <v>1</v>
+      </c>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="R21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar emisión de reporte Traspaso a Judicial considerando Estado Contrato Castigado y Estado Pago Judicial</v>
+      </c>
+      <c r="S21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Castigado y Estado Pago Judicial seleccionar cobrador, hacer clic en boton confirmar</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>1</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11">
+        <v>1</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="11">
+        <v>1</v>
+      </c>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="R22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar emisión de reporte Traspaso a Judicial considerando Estado Contrato Vendido y Estado Pago Al día</v>
+      </c>
+      <c r="S22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Vendido y Estado Pago Al día, hacer clic en boton confirmar</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>1</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11">
+        <v>1</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11">
+        <v>1</v>
+      </c>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar emisión de reporte Traspaso a Judicial considerando Estado Contrato Vendido y Estado Pago Judicial</v>
+      </c>
+      <c r="S23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Vendido y Estado Pago Judicial, hacer clic en boton confirmar</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>1</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11">
+        <v>1</v>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="15">
+        <v>1</v>
+      </c>
+      <c r="P24" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="R24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar emisión de reporte Traspaso a Judicial considerando Estado Contrato Vendido y Estado Pago Pre Judicial</v>
+      </c>
+      <c r="S24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Vendido y Estado Pago Pre Judicial seleccionar cobrador, hacer clic en boton confirmar</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>1</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="15">
+        <v>1</v>
+      </c>
+      <c r="J25" s="11">
+        <v>1</v>
+      </c>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="R25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar emisión de reporte Traspaso a Judicial considerando Estado Contrato Rematado y Estado Pago Al día</v>
+      </c>
+      <c r="S25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Rematado y Estado Pago Al día, hacer clic en boton confirmar</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>1</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="15">
+        <v>1</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11">
+        <v>1</v>
+      </c>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="R26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar emisión de reporte Traspaso a Judicial considerando Estado Contrato Rematado y Estado Pago Judicial</v>
+      </c>
+      <c r="S26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Rematado y Estado Pago Judicial, hacer clic en boton confirmar</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>1</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="15">
+        <v>1</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="15">
+        <v>1</v>
+      </c>
+      <c r="P27" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="R27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar emisión de reporte Traspaso a Judicial considerando Estado Contrato Rematado y Estado Pago Pre Judicial</v>
+      </c>
+      <c r="S27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Rematado y Estado Pago Pre Judicial seleccionar cobrador, hacer clic en boton confirmar</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="16"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="16"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="16"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="16"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="16"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="16"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="16"/>
+    </row>
+    <row r="36" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+    </row>
+    <row r="37" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+    </row>
+    <row r="38" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+    </row>
+    <row r="39" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+    </row>
+    <row r="40" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+    </row>
+    <row r="41" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="16"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="16"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="16"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="16"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="16"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="16"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="16"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="16"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="16"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="16"/>
+    </row>
+    <row r="52" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="Q1:Q2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B14" sqref="B14"/>
     </sheetView>
@@ -1631,24 +3756,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1887,1556 +4012,11 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S65"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="16" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q13" sqref="Q13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.7109375" style="25" customWidth="1"/>
-    <col min="2" max="3" width="3" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" customWidth="1"/>
-    <col min="5" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="8" width="3.5703125" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" style="14" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" style="14" customWidth="1"/>
-    <col min="12" max="12" width="3.5703125" style="14" customWidth="1"/>
-    <col min="13" max="13" width="2.85546875" style="14" customWidth="1"/>
-    <col min="14" max="14" width="3.42578125" style="14" customWidth="1"/>
-    <col min="15" max="15" width="3.85546875" style="25" customWidth="1"/>
-    <col min="16" max="16" width="55" style="25" customWidth="1"/>
-    <col min="17" max="17" width="163.42578125" style="5" customWidth="1"/>
-    <col min="18" max="18" width="255.42578125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="85.5703125" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="13">
-        <v>1</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13">
-        <v>1</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-    </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
-        <v>1</v>
-      </c>
-      <c r="B5" s="13">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13">
-        <v>1</v>
-      </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
-        <v>1</v>
-      </c>
-      <c r="B6" s="13">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13">
-        <v>1</v>
-      </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-    </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
-        <v>1</v>
-      </c>
-      <c r="B7" s="13">
-        <v>1</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13">
-        <v>1</v>
-      </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-    </row>
-    <row r="8" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
-        <v>1</v>
-      </c>
-      <c r="B8" s="13">
-        <v>1</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="23">
-        <v>1</v>
-      </c>
-      <c r="P8" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-    </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
-        <v>1</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="13">
-        <v>1</v>
-      </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
-        <v>1</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13">
-        <v>1</v>
-      </c>
-      <c r="O10" s="23"/>
-      <c r="P10" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="7"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
-        <v>1</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13">
-        <v>1</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="23">
-        <v>1</v>
-      </c>
-      <c r="P11" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="S11" s="7"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
-        <v>1</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13">
-        <v>1</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="13">
-        <v>1</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="S12" s="7"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
-        <v>1</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13">
-        <v>1</v>
-      </c>
-      <c r="O13" s="23"/>
-      <c r="P13" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="S13" s="7"/>
-    </row>
-    <row r="14" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
-        <v>1</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13">
-        <v>1</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="23">
-        <v>1</v>
-      </c>
-      <c r="P14" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="7"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
-        <v>1</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13">
-        <v>1</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="13">
-        <v>1</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="S15" s="7"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
-        <v>1</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13">
-        <v>1</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13">
-        <v>1</v>
-      </c>
-      <c r="O16" s="23"/>
-      <c r="P16" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
-        <v>1</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13">
-        <v>1</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="13">
-        <v>1</v>
-      </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="S17" s="7"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
-        <v>1</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13">
-        <v>1</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13">
-        <v>1</v>
-      </c>
-      <c r="O18" s="23"/>
-      <c r="P18" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="S18" s="7"/>
-    </row>
-    <row r="19" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
-        <v>1</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13">
-        <v>1</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="23">
-        <v>1</v>
-      </c>
-      <c r="P19" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="7"/>
-    </row>
-    <row r="20" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
-        <v>1</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13">
-        <v>1</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="13">
-        <v>1</v>
-      </c>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="7"/>
-    </row>
-    <row r="21" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
-        <v>1</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13">
-        <v>1</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13">
-        <v>1</v>
-      </c>
-      <c r="O21" s="23"/>
-      <c r="P21" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="7"/>
-    </row>
-    <row r="22" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
-        <v>1</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13">
-        <v>1</v>
-      </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="13">
-        <v>1</v>
-      </c>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="7"/>
-    </row>
-    <row r="23" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
-        <v>1</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13">
-        <v>1</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13">
-        <v>1</v>
-      </c>
-      <c r="O23" s="23"/>
-      <c r="P23" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="7"/>
-    </row>
-    <row r="24" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23">
-        <v>1</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13">
-        <v>1</v>
-      </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="23">
-        <v>1</v>
-      </c>
-      <c r="P24" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-    </row>
-    <row r="25" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
-        <v>1</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="23">
-        <v>1</v>
-      </c>
-      <c r="J25" s="13">
-        <v>1</v>
-      </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-    </row>
-    <row r="26" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23">
-        <v>1</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="23">
-        <v>1</v>
-      </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13">
-        <v>1</v>
-      </c>
-      <c r="O26" s="23"/>
-      <c r="P26" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-    </row>
-    <row r="27" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
-        <v>1</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="23">
-        <v>1</v>
-      </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="23">
-        <v>1</v>
-      </c>
-      <c r="P27" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="4"/>
-    </row>
-    <row r="28" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="24"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="24"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="24"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="24"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="24"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="24"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="24"/>
-    </row>
-    <row r="36" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-    </row>
-    <row r="37" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-    </row>
-    <row r="38" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-    </row>
-    <row r="39" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-    </row>
-    <row r="40" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-    </row>
-    <row r="41" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="24"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="24"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="24"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="24"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="24"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="24"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="24"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="24"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="24"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="24"/>
-    </row>
-    <row r="52" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="23"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="23"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="23"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="23"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="23"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="23"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="23"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="23"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="23"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="23"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="23"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="23"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="A1:A2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3458,24 +4038,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">

--- a/Casos Cartera/Reportes.xlsx
+++ b/Casos Cartera/Reportes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Campaña Prepago" sheetId="15" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="104">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -49,39 +49,9 @@
     <t>Sistema emite mensaje indicando Debe ingresar una fecha.</t>
   </si>
   <si>
-    <t>TC_Cartera_PACNominaReintento_Documento</t>
-  </si>
-  <si>
-    <t>TC_Cartera_PACNominaReintento_Fecha</t>
-  </si>
-  <si>
-    <t>TC_Cartera_PACNominaReintento_FechaError</t>
-  </si>
-  <si>
-    <t>Validar emisión de nómina de reintento, indicando fecha en la cual existe regitros.</t>
-  </si>
-  <si>
     <t>Validar emisión de nómina de reintento, indicando fecha en la cual no hay regitros.</t>
   </si>
   <si>
-    <t>Validar emisión de nómina de reintento, sin indicar fecha.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Generar Nómina de Reintento, ingresar fecha en la cual exiten regitros, hacer clic en boton confirmar, visualizar archivo excel con la información correspondiente.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Generar Nómina de Reintento, ingresar fecha en la cual no hay regitros, hacer clic en boton confirmar, se debe descargar archivo excel</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Generar Nómina de Reintento, hacer clic en boton confirmar</t>
-  </si>
-  <si>
-    <t>Descarga de archivo excel con información correspondiente a nómina de reintento</t>
-  </si>
-  <si>
-    <t>Descarga de archivo excel sin información correspondiente a nómina de reintento</t>
-  </si>
-  <si>
     <t>Validar emisión de archivo excel, el cual contine los posibles candidatos a prepagos a fecha y días de mora indicados</t>
   </si>
   <si>
@@ -290,6 +260,87 @@
   </si>
   <si>
     <t>Emisión de reporte Traspaso a Judicial con datos seleccionados de manera exitosa</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ReportesMoraCierre_OPDesde</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ReportesMoraCierre_OPHasta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ReportesMoraCierre_OP</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ReportesMoraCierre_Fecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar emisión reporte Mora Cierre, ingresando fecha desde y numero de operación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar emisión reporte Mora Cierre, sin ingresar fecha desde - hasta y numero de operación </t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Mora Cierre, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje indicando Fecha Desde no puede estar vacío.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar emisión reporte Mora Cierre, ingresando numero de operación que se encuentre en el rango de fecha cierre 01-10 al 30-10 </t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Mora Cierre, ingresar numero de operación que esté asociado a fecha cierre de rango 01-10 al 30-10, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Emisión de reporte mora cierre, se debe visualizar los registros asociados a la fecha cierre 01-10 al 30-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar emisión reporte Mora Cierre, ingresando fecha hasta y numero de operación </t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Mora Cierre, ingresar fecha desde, ingresar numero de operación, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Mora Cierre, ingresar fecha hasta, ingresar numero de operación, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Emisión de reporte mora cierre, se debe visualizar los registros con numero de operación asociado a la fecha desde ingresada</t>
+  </si>
+  <si>
+    <t>Emisión de reporte mora cierre, se debe visualizar los registros con numero de operación asociado a la fecha hasta ingresada</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ReportesContratosFondo_Graficos</t>
+  </si>
+  <si>
+    <t>Validar visualización de gráfico de Flujo Contratos Fondo Activa Global, luego de procesar pagarés</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Flujo Contratos Fondo Activa Global, hacer clic en boton Flujo Contratos Fondo Activa Global</t>
+  </si>
+  <si>
+    <t>Se debe visualizar modificaciones en gráficos, por las ventas de pagarés procesadas</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ReportesDICOM_DiasMora</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ReportesDICOM</t>
+  </si>
+  <si>
+    <t>Validar emisión de reporte DICOM, indicando días mora 15, 60 y 90</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo DICOM, ingresar días de mora 15, 60 y 90, hacer clic en boton emitir.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo DICOM, hacer clic en boton emitir.</t>
+  </si>
+  <si>
+    <t>Emisión de reporte DICOM, se debe visualizar datos de los clientes asociados a los días de mora indicados</t>
+  </si>
+  <si>
+    <t>Sistema emitre mensaje solicitando el ingreso de días de mora</t>
   </si>
 </sst>
 </file>
@@ -441,6 +492,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -452,15 +512,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,30 +854,30 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1086,27 +1137,27 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>5</v>
@@ -1334,9 +1385,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,7 +1395,7 @@
     <col min="1" max="1" width="51.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="101" style="5" customWidth="1"/>
     <col min="3" max="3" width="160.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="106.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
@@ -1369,45 +1420,37 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -1661,27 +1704,27 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>5</v>
@@ -1935,31 +1978,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q1" s="23" t="s">
+      <c r="A1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="R1" s="18" t="s">
@@ -1973,51 +2016,51 @@
       </c>
     </row>
     <row r="2" spans="1:20" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="O2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>59</v>
-      </c>
       <c r="P2" s="19"/>
-      <c r="Q2" s="24"/>
+      <c r="Q2" s="21"/>
       <c r="R2" s="19"/>
       <c r="S2" s="19"/>
       <c r="T2" s="19"/>
@@ -2048,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R3" s="5" t="str">
         <f>CONCATENATE("Validar emisión de reporte Traspaso a Judicial"," considerando ",$B$1," ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2,IF(E3=1,$E$2,IF(F3=1,$F$2,IF(G3=1,$G$2,IF(H3=1,$H$2,IF(I3=1,$I$2))))))))," y Estado Pago ",IF(J3=1,$J$2,IF(K3=1,$K$2,IF(L3=1,$L$2,IF(M3=1,$M$2,IF(N3=1,$N$2,IF(O3=1,$O$2)))))))</f>
@@ -2059,7 +2102,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Vigente y Estado Pago Al día seleccionar cobrador, hacer clic en boton confirmar</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2086,7 +2129,7 @@
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="R4" s="5" t="str">
         <f t="shared" ref="R4:R27" si="0">CONCATENATE("Validar emisión de reporte Traspaso a Judicial"," considerando ",$B$1," ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2,IF(E4=1,$E$2,IF(F4=1,$F$2,IF(G4=1,$G$2,IF(H4=1,$H$2,IF(I4=1,$I$2))))))))," y Estado Pago ",IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2,IF(M4=1,$M$2,IF(N4=1,$N$2,IF(O4=1,$O$2)))))))</f>
@@ -2097,7 +2140,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Vigente y Estado Pago Moroso, hacer clic en boton confirmar</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2124,7 +2167,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="16" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="R5" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2135,7 +2178,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Vigente y Estado Pago Menor, hacer clic en boton confirmar</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2164,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="R6" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2175,7 +2218,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Vigente y Estado Pago Vencido seleccionar cobrador, hacer clic en boton confirmar</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2202,7 +2245,7 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="16" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="R7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2213,7 +2256,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Vigente y Estado Pago Judicial, hacer clic en boton confirmar</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2240,7 +2283,7 @@
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="16" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="R8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2251,7 +2294,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Vigente y Estado Pago Pre Judicial, hacer clic en boton confirmar</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2280,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="R9" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2291,7 +2334,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Prepagado y Estado Pago Al día seleccionar cobrador, hacer clic en boton confirmar</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2318,7 +2361,7 @@
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="16" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="R10" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2329,7 +2372,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Prepagado y Estado Pago Judicial, hacer clic en boton confirmar</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -2356,7 +2399,7 @@
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="16" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="R11" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2367,7 +2410,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Prepagado y Estado Pago Pre Judicial, hacer clic en boton confirmar</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -2396,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="R12" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2407,7 +2450,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Extinto y Estado Pago Al día seleccionar cobrador, hacer clic en boton confirmar</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -2434,7 +2477,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="R13" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2445,7 +2488,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Extinto y Estado Pago Judicial, hacer clic en boton confirmar</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2472,7 +2515,7 @@
       </c>
       <c r="P14" s="15"/>
       <c r="Q14" s="16" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="R14" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2483,7 +2526,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Extinto y Estado Pago Pre Judicial, hacer clic en boton confirmar</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -2512,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="R15" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2523,7 +2566,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Incautado y Estado Pago Al día seleccionar cobrador, hacer clic en boton confirmar</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -2550,7 +2593,7 @@
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
       <c r="Q16" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="R16" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2561,7 +2604,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Incautado y Estado Pago Judicial, hacer clic en boton confirmar</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -2588,7 +2631,7 @@
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
       <c r="Q17" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="R17" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2599,7 +2642,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Dación Pago y Estado Pago Al día, hacer clic en boton confirmar</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -2628,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="Q18" s="16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="R18" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2639,7 +2682,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Dación Pago y Estado Pago Judicial seleccionar cobrador, hacer clic en boton confirmar</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2666,7 +2709,7 @@
       </c>
       <c r="P19" s="15"/>
       <c r="Q19" s="16" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="R19" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2677,7 +2720,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Dación Pago y Estado Pago Pre Judicial, hacer clic en boton confirmar</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2704,7 +2747,7 @@
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="16" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R20" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2715,7 +2758,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Castigado y Estado Pago Al día, hacer clic en boton confirmar</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2744,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="Q21" s="16" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="R21" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2755,7 +2798,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Castigado y Estado Pago Judicial seleccionar cobrador, hacer clic en boton confirmar</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2782,7 +2825,7 @@
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="16" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R22" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2793,7 +2836,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Vendido y Estado Pago Al día, hacer clic en boton confirmar</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2820,7 +2863,7 @@
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="16" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="R23" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2831,7 +2874,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Vendido y Estado Pago Judicial, hacer clic en boton confirmar</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2860,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="R24" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2871,7 +2914,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Vendido y Estado Pago Pre Judicial seleccionar cobrador, hacer clic en boton confirmar</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2898,7 +2941,7 @@
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="R25" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2909,7 +2952,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Rematado y Estado Pago Al día, hacer clic en boton confirmar</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2936,7 +2979,7 @@
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
       <c r="Q26" s="16" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="R26" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2947,7 +2990,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Rematado y Estado Pago Judicial, hacer clic en boton confirmar</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2976,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="Q27" s="16" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="R27" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2987,7 +3030,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Reportes - sub modulo Traspaso a Judicial, seleccionar Estado Contrato Rematado y Estado Pago Pre Judicial seleccionar cobrador, hacer clic en boton confirmar</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3742,17 +3785,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B14" sqref="B14"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="121.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="129.42578125" style="5" customWidth="1"/>
     <col min="3" max="3" width="169.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="118.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="126.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
@@ -3777,43 +3820,59 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="7" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -4025,8 +4084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4059,16 +4118,16 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4297,12 +4356,274 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="101" style="5" customWidth="1"/>
+    <col min="3" max="3" width="147.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="84.28515625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="6" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>